--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H2">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I2">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J2">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>313.7529699921066</v>
+        <v>1055.615616854704</v>
       </c>
       <c r="R2">
-        <v>313.7529699921066</v>
+        <v>9500.540551692331</v>
       </c>
       <c r="S2">
-        <v>0.002654884126491687</v>
+        <v>0.007291095639331759</v>
       </c>
       <c r="T2">
-        <v>0.002654884126491687</v>
+        <v>0.007291095639331759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H3">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I3">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J3">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>622.4874490268152</v>
+        <v>1621.746187037076</v>
       </c>
       <c r="R3">
-        <v>622.4874490268152</v>
+        <v>14595.71568333368</v>
       </c>
       <c r="S3">
-        <v>0.005267303278127285</v>
+        <v>0.01120133727051183</v>
       </c>
       <c r="T3">
-        <v>0.005267303278127285</v>
+        <v>0.01120133727051183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H4">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I4">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J4">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>292.2323388451758</v>
+        <v>810.3752311540356</v>
       </c>
       <c r="R4">
-        <v>292.2323388451758</v>
+        <v>7293.377080386321</v>
       </c>
       <c r="S4">
-        <v>0.002472782959368053</v>
+        <v>0.005597229919442271</v>
       </c>
       <c r="T4">
-        <v>0.002472782959368053</v>
+        <v>0.005597229919442271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H5">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I5">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J5">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>328.0062065462968</v>
+        <v>850.574792457678</v>
       </c>
       <c r="R5">
-        <v>328.0062065462968</v>
+        <v>7655.173132119102</v>
       </c>
       <c r="S5">
-        <v>0.002775490766421829</v>
+        <v>0.0058748867117862</v>
       </c>
       <c r="T5">
-        <v>0.002775490766421829</v>
+        <v>0.005874886711786201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H6">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I6">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J6">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>244.9386480798865</v>
+        <v>647.9228069434866</v>
       </c>
       <c r="R6">
-        <v>244.9386480798865</v>
+        <v>5831.30526249138</v>
       </c>
       <c r="S6">
-        <v>0.002072597842716785</v>
+        <v>0.004475177400657455</v>
       </c>
       <c r="T6">
-        <v>0.002072597842716785</v>
+        <v>0.004475177400657456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.29628601061224</v>
+        <v>11.13520333333333</v>
       </c>
       <c r="H7">
-        <v>4.29628601061224</v>
+        <v>33.40561</v>
       </c>
       <c r="I7">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="J7">
-        <v>0.01916012183052157</v>
+        <v>0.04334871314476626</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>462.9166647577187</v>
+        <v>1289.856207006306</v>
       </c>
       <c r="R7">
-        <v>462.9166647577187</v>
+        <v>11608.70586305675</v>
       </c>
       <c r="S7">
-        <v>0.003917062857395932</v>
+        <v>0.008908986203036746</v>
       </c>
       <c r="T7">
-        <v>0.003917062857395932</v>
+        <v>0.008908986203036746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.6418385302913</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H8">
-        <v>57.6418385302913</v>
+        <v>173.869492</v>
       </c>
       <c r="I8">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J8">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>4209.51910324683</v>
+        <v>5494.267311681898</v>
       </c>
       <c r="R8">
-        <v>4209.51910324683</v>
+        <v>49448.40580513708</v>
       </c>
       <c r="S8">
-        <v>0.03561969611842938</v>
+        <v>0.03794868870629897</v>
       </c>
       <c r="T8">
-        <v>0.03561969611842938</v>
+        <v>0.03794868870629898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.6418385302913</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H9">
-        <v>57.6418385302913</v>
+        <v>173.869492</v>
       </c>
       <c r="I9">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J9">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>8351.706784722035</v>
+        <v>8440.8632470137</v>
       </c>
       <c r="R9">
-        <v>8351.706784722035</v>
+        <v>75967.76922312329</v>
       </c>
       <c r="S9">
-        <v>0.07066965381213533</v>
+        <v>0.05830071119624993</v>
       </c>
       <c r="T9">
-        <v>0.07066965381213533</v>
+        <v>0.05830071119624994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.6418385302913</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H10">
-        <v>57.6418385302913</v>
+        <v>173.869492</v>
       </c>
       <c r="I10">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J10">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>3920.783962574814</v>
+        <v>4217.840349873411</v>
       </c>
       <c r="R10">
-        <v>3920.783962574814</v>
+        <v>37960.5631488607</v>
       </c>
       <c r="S10">
-        <v>0.03317650540775734</v>
+        <v>0.02913245777283003</v>
       </c>
       <c r="T10">
-        <v>0.03317650540775734</v>
+        <v>0.02913245777283003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.6418385302913</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H11">
-        <v>57.6418385302913</v>
+        <v>173.869492</v>
       </c>
       <c r="I11">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J11">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>4400.750031067113</v>
+        <v>4427.070994142058</v>
       </c>
       <c r="R11">
-        <v>4400.750031067113</v>
+        <v>39843.63894727853</v>
       </c>
       <c r="S11">
-        <v>0.03723783523844192</v>
+        <v>0.03057760562180475</v>
       </c>
       <c r="T11">
-        <v>0.03723783523844192</v>
+        <v>0.03057760562180476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.6418385302913</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H12">
-        <v>57.6418385302913</v>
+        <v>173.869492</v>
       </c>
       <c r="I12">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J12">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>3286.260264697015</v>
+        <v>3372.308103293971</v>
       </c>
       <c r="R12">
-        <v>3286.260264697015</v>
+        <v>30350.77292964574</v>
       </c>
       <c r="S12">
-        <v>0.02780735497893125</v>
+        <v>0.02329239972753655</v>
       </c>
       <c r="T12">
-        <v>0.02780735497893125</v>
+        <v>0.02329239972753655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.6418385302913</v>
+        <v>57.95649733333334</v>
       </c>
       <c r="H13">
-        <v>57.6418385302913</v>
+        <v>173.869492</v>
       </c>
       <c r="I13">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="J13">
-        <v>0.2570649733392047</v>
+        <v>0.225621347232822</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>6210.798717086089</v>
+        <v>6713.442546483456</v>
       </c>
       <c r="R13">
-        <v>6210.798717086089</v>
+        <v>60420.9829183511</v>
       </c>
       <c r="S13">
-        <v>0.05255392778350949</v>
+        <v>0.0463694842081018</v>
       </c>
       <c r="T13">
-        <v>0.05255392778350949</v>
+        <v>0.0463694842081018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.5508753737788</v>
+        <v>55.64567566666667</v>
       </c>
       <c r="H14">
-        <v>39.5508753737788</v>
+        <v>166.937027</v>
       </c>
       <c r="I14">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="J14">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>2888.356264843364</v>
+        <v>5275.201761994326</v>
       </c>
       <c r="R14">
-        <v>2888.356264843364</v>
+        <v>47476.81585794894</v>
       </c>
       <c r="S14">
-        <v>0.02444040991668823</v>
+        <v>0.036435611551554</v>
       </c>
       <c r="T14">
-        <v>0.02444040991668823</v>
+        <v>0.03643561155155401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.5508753737788</v>
+        <v>55.64567566666667</v>
       </c>
       <c r="H15">
-        <v>39.5508753737788</v>
+        <v>166.937027</v>
       </c>
       <c r="I15">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="J15">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>5730.513158897585</v>
+        <v>8104.312030600708</v>
       </c>
       <c r="R15">
-        <v>5730.513158897585</v>
+        <v>72938.80827540638</v>
       </c>
       <c r="S15">
-        <v>0.04848989452623088</v>
+        <v>0.0559761651520071</v>
       </c>
       <c r="T15">
-        <v>0.04848989452623088</v>
+        <v>0.05597616515200711</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.5508753737788</v>
+        <v>55.64567566666667</v>
       </c>
       <c r="H16">
-        <v>39.5508753737788</v>
+        <v>166.937027</v>
       </c>
       <c r="I16">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="J16">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>2690.241009398341</v>
+        <v>4049.66806004418</v>
       </c>
       <c r="R16">
-        <v>2690.241009398341</v>
+        <v>36447.01254039763</v>
       </c>
       <c r="S16">
-        <v>0.02276401766800268</v>
+        <v>0.02797089836668578</v>
       </c>
       <c r="T16">
-        <v>0.02276401766800268</v>
+        <v>0.02797089836668578</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.5508753737788</v>
+        <v>55.64567566666667</v>
       </c>
       <c r="H17">
-        <v>39.5508753737788</v>
+        <v>166.937027</v>
       </c>
       <c r="I17">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="J17">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>3019.569126658268</v>
+        <v>4250.556331527153</v>
       </c>
       <c r="R17">
-        <v>3019.569126658268</v>
+        <v>38255.00698374437</v>
       </c>
       <c r="S17">
-        <v>0.02555069404892353</v>
+        <v>0.02935842577421559</v>
       </c>
       <c r="T17">
-        <v>0.02555069404892353</v>
+        <v>0.0293584257742156</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.5508753737788</v>
+        <v>55.64567566666667</v>
       </c>
       <c r="H18">
-        <v>39.5508753737788</v>
+        <v>166.937027</v>
       </c>
       <c r="I18">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="J18">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>2254.863368151074</v>
+        <v>3237.848586409307</v>
       </c>
       <c r="R18">
-        <v>2254.863368151074</v>
+        <v>29140.63727768376</v>
       </c>
       <c r="S18">
-        <v>0.01907998182029153</v>
+        <v>0.02236369312110581</v>
       </c>
       <c r="T18">
-        <v>0.01907998182029153</v>
+        <v>0.02236369312110581</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.5508753737788</v>
+        <v>55.64567566666667</v>
       </c>
       <c r="H19">
-        <v>39.5508753737788</v>
+        <v>166.937027</v>
       </c>
       <c r="I19">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="J19">
-        <v>0.176384809762092</v>
+        <v>0.216625449936795</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>4261.531767450648</v>
+        <v>6445.766458242469</v>
       </c>
       <c r="R19">
-        <v>4261.531767450648</v>
+        <v>58011.89812418222</v>
       </c>
       <c r="S19">
-        <v>0.03605981178195516</v>
+        <v>0.04452065597122676</v>
       </c>
       <c r="T19">
-        <v>0.03605981178195516</v>
+        <v>0.04452065597122676</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>58.3553982908875</v>
+        <v>60.68199533333333</v>
       </c>
       <c r="H20">
-        <v>58.3553982908875</v>
+        <v>182.045986</v>
       </c>
       <c r="I20">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054342</v>
       </c>
       <c r="J20">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054343</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>4261.629575780759</v>
+        <v>5752.644115982695</v>
       </c>
       <c r="R20">
-        <v>4261.629575780759</v>
+        <v>51773.79704384426</v>
       </c>
       <c r="S20">
-        <v>0.03606063940689543</v>
+        <v>0.03973328715393762</v>
       </c>
       <c r="T20">
-        <v>0.03606063940689543</v>
+        <v>0.03973328715393763</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>58.3553982908875</v>
+        <v>60.68199533333333</v>
       </c>
       <c r="H21">
-        <v>58.3553982908875</v>
+        <v>182.045986</v>
       </c>
       <c r="I21">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054342</v>
       </c>
       <c r="J21">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054343</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>8455.094220755051</v>
+        <v>8837.808489678973</v>
       </c>
       <c r="R21">
-        <v>8455.094220755051</v>
+        <v>79540.27640711077</v>
       </c>
       <c r="S21">
-        <v>0.07154448748401941</v>
+        <v>0.06104239640973103</v>
       </c>
       <c r="T21">
-        <v>0.07154448748401941</v>
+        <v>0.06104239640973105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>58.3553982908875</v>
+        <v>60.68199533333333</v>
       </c>
       <c r="H22">
-        <v>58.3553982908875</v>
+        <v>182.045986</v>
       </c>
       <c r="I22">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054342</v>
       </c>
       <c r="J22">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054343</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>3969.320125490819</v>
+        <v>4416.19111237347</v>
       </c>
       <c r="R22">
-        <v>3969.320125490819</v>
+        <v>39745.72001136123</v>
       </c>
       <c r="S22">
-        <v>0.03358720395346277</v>
+        <v>0.03050245870539615</v>
       </c>
       <c r="T22">
-        <v>0.03358720395346277</v>
+        <v>0.03050245870539615</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>58.3553982908875</v>
+        <v>60.68199533333333</v>
       </c>
       <c r="H23">
-        <v>58.3553982908875</v>
+        <v>182.045986</v>
       </c>
       <c r="I23">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054342</v>
       </c>
       <c r="J23">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054343</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>4455.227789214292</v>
+        <v>4635.261166004851</v>
       </c>
       <c r="R23">
-        <v>4455.227789214292</v>
+        <v>41717.35049404366</v>
       </c>
       <c r="S23">
-        <v>0.03769880979226189</v>
+        <v>0.03201556696870425</v>
       </c>
       <c r="T23">
-        <v>0.03769880979226189</v>
+        <v>0.03201556696870426</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>58.3553982908875</v>
+        <v>60.68199533333333</v>
       </c>
       <c r="H24">
-        <v>58.3553982908875</v>
+        <v>182.045986</v>
       </c>
       <c r="I24">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054342</v>
       </c>
       <c r="J24">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054343</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>3326.941532809269</v>
+        <v>3530.896344713198</v>
       </c>
       <c r="R24">
-        <v>3326.941532809269</v>
+        <v>31778.06710241879</v>
       </c>
       <c r="S24">
-        <v>0.02815158774574615</v>
+        <v>0.02438776248742661</v>
       </c>
       <c r="T24">
-        <v>0.02815158774574615</v>
+        <v>0.02438776248742662</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>58.3553982908875</v>
+        <v>60.68199533333333</v>
       </c>
       <c r="H25">
-        <v>58.3553982908875</v>
+        <v>182.045986</v>
       </c>
       <c r="I25">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054342</v>
       </c>
       <c r="J25">
-        <v>0.2602472316694486</v>
+        <v>0.2362315559054343</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>6287.683427197238</v>
+        <v>7029.153037549171</v>
       </c>
       <c r="R25">
-        <v>6287.683427197238</v>
+        <v>63262.37733794254</v>
       </c>
       <c r="S25">
-        <v>0.05320450328706294</v>
+        <v>0.0485500841802386</v>
       </c>
       <c r="T25">
-        <v>0.05320450328706294</v>
+        <v>0.0485500841802386</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.961726935259</v>
+        <v>30.42032266666667</v>
       </c>
       <c r="H26">
-        <v>29.961726935259</v>
+        <v>91.26096800000001</v>
       </c>
       <c r="I26">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="J26">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>2188.071461911444</v>
+        <v>2883.842056171923</v>
       </c>
       <c r="R26">
-        <v>2188.071461911444</v>
+        <v>25954.57850554731</v>
       </c>
       <c r="S26">
-        <v>0.01851480861521182</v>
+        <v>0.01991858390928934</v>
       </c>
       <c r="T26">
-        <v>0.01851480861521182</v>
+        <v>0.01991858390928935</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.961726935259</v>
+        <v>30.42032266666667</v>
       </c>
       <c r="H27">
-        <v>29.961726935259</v>
+        <v>91.26096800000001</v>
       </c>
       <c r="I27">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="J27">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>4341.14463569188</v>
+        <v>4430.45724593302</v>
       </c>
       <c r="R27">
-        <v>4341.14463569188</v>
+        <v>39874.11521339718</v>
       </c>
       <c r="S27">
-        <v>0.03673347214655166</v>
+        <v>0.03060099433003581</v>
       </c>
       <c r="T27">
-        <v>0.03673347214655166</v>
+        <v>0.03060099433003582</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.961726935259</v>
+        <v>30.42032266666667</v>
       </c>
       <c r="H28">
-        <v>29.961726935259</v>
+        <v>91.26096800000001</v>
       </c>
       <c r="I28">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="J28">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>2037.989444022955</v>
+        <v>2213.868510059869</v>
       </c>
       <c r="R28">
-        <v>2037.989444022955</v>
+        <v>19924.81659053882</v>
       </c>
       <c r="S28">
-        <v>0.01724485930772315</v>
+        <v>0.01529110291854762</v>
       </c>
       <c r="T28">
-        <v>0.01724485930772315</v>
+        <v>0.01529110291854762</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.961726935259</v>
+        <v>30.42032266666667</v>
       </c>
       <c r="H29">
-        <v>29.961726935259</v>
+        <v>91.26096800000001</v>
       </c>
       <c r="I29">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="J29">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>2287.471636975544</v>
+        <v>2323.689910649342</v>
       </c>
       <c r="R29">
-        <v>2287.471636975544</v>
+        <v>20913.20919584408</v>
       </c>
       <c r="S29">
-        <v>0.01935590327307216</v>
+        <v>0.01604963502261882</v>
       </c>
       <c r="T29">
-        <v>0.01935590327307216</v>
+        <v>0.01604963502261883</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.961726935259</v>
+        <v>30.42032266666667</v>
       </c>
       <c r="H30">
-        <v>29.961726935259</v>
+        <v>91.26096800000001</v>
       </c>
       <c r="I30">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="J30">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>1708.16953795291</v>
+        <v>1770.063847088549</v>
       </c>
       <c r="R30">
-        <v>1708.16953795291</v>
+        <v>15930.57462379694</v>
       </c>
       <c r="S30">
-        <v>0.01445402155645542</v>
+        <v>0.01222576152795064</v>
       </c>
       <c r="T30">
-        <v>0.01445402155645542</v>
+        <v>0.01222576152795064</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.961726935259</v>
+        <v>30.42032266666667</v>
       </c>
       <c r="H31">
-        <v>29.961726935259</v>
+        <v>91.26096800000001</v>
       </c>
       <c r="I31">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="J31">
-        <v>0.1336201400266121</v>
+        <v>0.1184245856652728</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>3228.319220133832</v>
+        <v>3523.765200881044</v>
       </c>
       <c r="R31">
-        <v>3228.319220133832</v>
+        <v>31713.8868079294</v>
       </c>
       <c r="S31">
-        <v>0.02731707512759787</v>
+        <v>0.02433850795683054</v>
       </c>
       <c r="T31">
-        <v>0.02731707512759787</v>
+        <v>0.02433850795683054</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>34.4244955522175</v>
+        <v>41.03536666666667</v>
       </c>
       <c r="H32">
-        <v>34.4244955522175</v>
+        <v>123.1061</v>
       </c>
       <c r="I32">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="J32">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>2513.982470745504</v>
+        <v>3890.146645730367</v>
       </c>
       <c r="R32">
-        <v>2513.982470745504</v>
+        <v>35011.3198115733</v>
       </c>
       <c r="S32">
-        <v>0.02127257044300968</v>
+        <v>0.02686909021823398</v>
       </c>
       <c r="T32">
-        <v>0.02127257044300968</v>
+        <v>0.02686909021823398</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>34.4244955522175</v>
+        <v>41.03536666666667</v>
       </c>
       <c r="H33">
-        <v>34.4244955522175</v>
+        <v>123.1061</v>
       </c>
       <c r="I33">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="J33">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>4987.753694098478</v>
+        <v>5976.446718859644</v>
       </c>
       <c r="R33">
-        <v>4987.753694098478</v>
+        <v>53788.0204697368</v>
       </c>
       <c r="S33">
-        <v>0.04220488529445782</v>
+        <v>0.04127908294916203</v>
       </c>
       <c r="T33">
-        <v>0.04220488529445782</v>
+        <v>0.04127908294916204</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>34.4244955522175</v>
+        <v>41.03536666666667</v>
       </c>
       <c r="H34">
-        <v>34.4244955522175</v>
+        <v>123.1061</v>
       </c>
       <c r="I34">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="J34">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>2341.545889622065</v>
+        <v>2986.388640829245</v>
       </c>
       <c r="R34">
-        <v>2341.545889622065</v>
+        <v>26877.4977674632</v>
       </c>
       <c r="S34">
-        <v>0.01981346348359945</v>
+        <v>0.02062686914520801</v>
       </c>
       <c r="T34">
-        <v>0.01981346348359945</v>
+        <v>0.02062686914520801</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>34.4244955522175</v>
+        <v>41.03536666666667</v>
       </c>
       <c r="H35">
-        <v>34.4244955522175</v>
+        <v>123.1061</v>
       </c>
       <c r="I35">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="J35">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>2628.188200334374</v>
+        <v>3134.531758521222</v>
       </c>
       <c r="R35">
-        <v>2628.188200334374</v>
+        <v>28210.785826691</v>
       </c>
       <c r="S35">
-        <v>0.02223894529086378</v>
+        <v>0.02165008784541947</v>
       </c>
       <c r="T35">
-        <v>0.02223894529086378</v>
+        <v>0.02165008784541947</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>34.4244955522175</v>
+        <v>41.03536666666667</v>
       </c>
       <c r="H36">
-        <v>34.4244955522175</v>
+        <v>123.1061</v>
       </c>
       <c r="I36">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="J36">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>1962.599645499541</v>
+        <v>2387.720202201533</v>
       </c>
       <c r="R36">
-        <v>1962.599645499541</v>
+        <v>21489.4818198138</v>
       </c>
       <c r="S36">
-        <v>0.01660693330050718</v>
+        <v>0.01649188973358297</v>
       </c>
       <c r="T36">
-        <v>0.01660693330050718</v>
+        <v>0.01649188973358297</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>34.4244955522175</v>
+        <v>41.03536666666667</v>
       </c>
       <c r="H37">
-        <v>34.4244955522175</v>
+        <v>123.1061</v>
       </c>
       <c r="I37">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="J37">
-        <v>0.1535227233721208</v>
+        <v>0.1597483481149097</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>3709.174069798147</v>
+        <v>4753.368287701944</v>
       </c>
       <c r="R37">
-        <v>3709.174069798147</v>
+        <v>42780.3145893175</v>
       </c>
       <c r="S37">
-        <v>0.03138592555968286</v>
+        <v>0.03283132822330326</v>
       </c>
       <c r="T37">
-        <v>0.03138592555968286</v>
+        <v>0.03283132822330326</v>
       </c>
     </row>
   </sheetData>
